--- a/assets/excel/template.xlsx
+++ b/assets/excel/template.xlsx
@@ -1,66 +1,158 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\XAMPP\htdocs\codeigniter3-phpspreadsheet\assets\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954A692B-6647-457B-95F4-0109590E17BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E2BCA681-CABF-4211-9EB6-046A350D3859}"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Date (yyyy-mm-dd)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="31">
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Kriteria</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Z1</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>B3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF548DD4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -68,20 +160,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -92,9 +276,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -111,44 +292,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -176,31 +357,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -228,23 +392,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -256,176 +403,771 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897D0DF3-AB7C-48C0-B28C-75A923C76DD9}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="3" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="6" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>11</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>12</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>14</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>15</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>16</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>17</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <v>18</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <v>19</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>20</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>